--- a/SMO/TemplateExcel/Template_DauTuXayDung.xlsx
+++ b/SMO/TemplateExcel/Template_DauTuXayDung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAE29F8-60E9-426A-B5D8-FEE6B49D160E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AB1BF8-496C-4341-B817-884FA88B3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
-    <t>KẾ HOẠCH NGÂN SÁCH DOANH THU KINH DOANH</t>
-  </si>
-  <si>
     <t xml:space="preserve">Năm ngân sách: </t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>THÔNG TIN VỀ DANH MỤC ĐẦU TƯ</t>
+  </si>
+  <si>
+    <t>KẾ HOẠCH ĐẦU TƯ XÂY DỰNG</t>
   </si>
 </sst>
 </file>
@@ -162,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -181,17 +181,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -477,7 +478,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E6"/>
+      <selection activeCell="C2" sqref="C2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,95 +503,98 @@
     <row r="2" spans="1:11" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="4"/>
       <c r="J2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H12" s="6"/>

--- a/SMO/TemplateExcel/Template_DauTuXayDung.xlsx
+++ b/SMO/TemplateExcel/Template_DauTuXayDung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AB1BF8-496C-4341-B817-884FA88B3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5FB15C-EEB1-4017-9489-D93C5E7BEECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">Năm ngân sách: </t>
   </si>
@@ -48,9 +48,6 @@
     <t>TỔNG MỨC ĐẦU TƯ</t>
   </si>
   <si>
-    <t>NGUỒN VCSH</t>
-  </si>
-  <si>
     <t>TIẾN ĐỘ THỰC HIỆN</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>GIÁ TRỊ GIẢI NGÂN</t>
   </si>
   <si>
-    <t>QKH NĂM</t>
-  </si>
-  <si>
     <t>GHI CHÚ</t>
   </si>
   <si>
@@ -79,6 +73,9 @@
   </si>
   <si>
     <t>KẾ HOẠCH ĐẦU TƯ XÂY DỰNG</t>
+  </si>
+  <si>
+    <t>NGUỒN VỐN</t>
   </si>
 </sst>
 </file>
@@ -477,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +501,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -547,21 +544,21 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -571,25 +568,25 @@
         <v>6</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="I7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="K7" s="12"/>
     </row>

--- a/SMO/TemplateExcel/Template_DauTuXayDung.xlsx
+++ b/SMO/TemplateExcel/Template_DauTuXayDung.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5FB15C-EEB1-4017-9489-D93C5E7BEECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61896A91-7D96-4BB8-9DD5-3B4D43D4AAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">Năm ngân sách: </t>
   </si>
@@ -76,13 +87,16 @@
   </si>
   <si>
     <t>NGUỒN VỐN</t>
+  </si>
+  <si>
+    <t>LOẠI ĐẦU TƯ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +130,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -131,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -154,12 +176,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -185,10 +233,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -472,139 +535,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3" t="s">
+      <c r="B3" s="1"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="1:12" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H12" s="6"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I12" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:E6"/>
+  <mergeCells count="8">
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SMO/TemplateExcel/Template_DauTuXayDung.xlsx
+++ b/SMO/TemplateExcel/Template_DauTuXayDung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61896A91-7D96-4BB8-9DD5-3B4D43D4AAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB125A-C9D2-4B4D-BDBE-B1B539A9E976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -202,12 +202,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -252,6 +289,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -537,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,20 +660,20 @@
       <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="15" t="s">
         <v>13</v>
       </c>
